--- a/files/okx/okx-bsc.xlsx
+++ b/files/okx/okx-bsc.xlsx
@@ -4,28 +4,35 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="21840"/>
+    <workbookView windowHeight="16760"/>
   </bookViews>
   <sheets>
     <sheet name="template" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
-    <t>Address</t>
+    <t>0x6d7B4CE9F77aD81C093A37e6E56C2e39634001cd</t>
   </si>
   <si>
-    <t>AddressName(optional)</t>
-  </si>
-  <si>
-    <t>0xe166ef54d26c1eb48f93b9e4f513884d9dfaa994</t>
-  </si>
-  <si>
-    <t>Lee</t>
+    <t>0xa1F207df57bb250a4E170Ad58d11F59D8C4518Cf</t>
   </si>
 </sst>
 </file>
@@ -38,7 +45,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -52,6 +59,12 @@
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -197,12 +210,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE2F0D9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -511,70 +530,67 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -586,7 +602,7 @@
     <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -595,10 +611,10 @@
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -607,10 +623,10 @@
     <xf numFmtId="0" fontId="0" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -619,10 +635,10 @@
     <xf numFmtId="0" fontId="0" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -631,10 +647,10 @@
     <xf numFmtId="0" fontId="0" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -643,10 +659,10 @@
     <xf numFmtId="0" fontId="0" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -655,12 +671,18 @@
     <xf numFmtId="0" fontId="0" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1000,34 +1022,27 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.6" outlineLevelRow="1" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.6" outlineLevelRow="1"/>
   <cols>
     <col min="1" max="1" width="86.1083333333333" style="1" customWidth="1"/>
-    <col min="2" max="2" width="9" style="1"/>
-    <col min="3" max="3" width="18.3333333333333" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="9" style="1"/>
+    <col min="2" max="2" width="18.3333333333333" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:2">
-      <c r="A1" s="1" t="s">
+    <row r="1" s="1" customFormat="1" spans="1:1">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="2" t="s">
         <v>1</v>
-      </c>
-    </row>
-    <row r="2" s="1" customFormat="1" spans="1:2">
-      <c r="A2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/files/okx/okx-bsc.xlsx
+++ b/files/okx/okx-bsc.xlsx
@@ -4,35 +4,76 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="16760"/>
+    <workbookView windowHeight="21840"/>
   </bookViews>
   <sheets>
     <sheet name="template" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
-  <si>
-    <t>0x6d7B4CE9F77aD81C093A37e6E56C2e39634001cd</t>
-  </si>
-  <si>
-    <t>0xa1F207df57bb250a4E170Ad58d11F59D8C4518Cf</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+  <si>
+    <t>0x5c7c7ACe20905e18CDEb67419a9B3ff34692900d</t>
+  </si>
+  <si>
+    <t>0x5e80cdDd3c890C27d305105ce095785F1606a262</t>
+  </si>
+  <si>
+    <t>0x5B8279bc39F322e58c00203E39405e0260D63839</t>
+  </si>
+  <si>
+    <t>0x690951236f31F2A74faf13314F1a0582C9575969</t>
+  </si>
+  <si>
+    <t>0x2F5284cF2c73C1dBa4ba78b7A67F228880AeD42B</t>
+  </si>
+  <si>
+    <t>0x237aCa3C70BBe0283Ae29Eb3d45Cd456eE83785d</t>
+  </si>
+  <si>
+    <t>0x76c2846CA09B78833d5a5dfd5bBD9414b598Ea72</t>
+  </si>
+  <si>
+    <t>0x5F272b8f8beE01506e2524e06a1D78d473029c14</t>
+  </si>
+  <si>
+    <t>0x184D997B5e9d57747641F54382eD5b6c4eB5130E</t>
+  </si>
+  <si>
+    <t>0xc50D31Aa9F6Bd5aB91974fC0990f250BA2cAC516</t>
+  </si>
+  <si>
+    <t>0x6aBa9216e65f3213734f74cd86914F22Ca8e7332</t>
+  </si>
+  <si>
+    <t>0x3bB590396261460a83EddBFD6e406aF1c5dA337a</t>
+  </si>
+  <si>
+    <t>0x882C68C1d7cCE806C679b6Efec33dFA9ED56eEC4</t>
+  </si>
+  <si>
+    <t>0xaf4c2cce18a58D13F043A100a782874BA2D9BdC0</t>
+  </si>
+  <si>
+    <t>0x95776D8961e0FD91340fa40D12722c6484e01Eea</t>
+  </si>
+  <si>
+    <t>0xA03D3Ef6f8d4b6c68D887328ba5D1D0484E2cE37</t>
+  </si>
+  <si>
+    <t>0x3bD28Fc6EFB1999Ad54aEA4d481f4b8E8aA56b2f</t>
+  </si>
+  <si>
+    <t>0xEacA1A602d69527ef8F3245560AE9E71b58f10C8</t>
+  </si>
+  <si>
+    <t>0x9b90323775b4198C4E67954FD08b547Fc07f3993</t>
+  </si>
+  <si>
+    <t>0x0Ceb1353686f0445521A564689C232ad5E027399</t>
   </si>
 </sst>
 </file>
@@ -45,7 +86,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="23">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -61,12 +102,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
+      <sz val="14"/>
       <color rgb="FF000000"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
     <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -219,7 +266,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFE2F0D9"/>
+        <fgColor rgb="FF0070C0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -410,12 +457,27 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -530,40 +592,37 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -572,37 +631,40 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -614,7 +676,7 @@
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -626,7 +688,7 @@
     <xf numFmtId="0" fontId="0" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -638,7 +700,7 @@
     <xf numFmtId="0" fontId="0" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -650,7 +712,7 @@
     <xf numFmtId="0" fontId="0" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -662,7 +724,7 @@
     <xf numFmtId="0" fontId="0" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -675,12 +737,15 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1022,27 +1087,117 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:A20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="B17" sqref="A1:B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.6" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.6"/>
   <cols>
     <col min="1" max="1" width="86.1083333333333" style="1" customWidth="1"/>
     <col min="2" max="2" width="18.3333333333333" style="1" customWidth="1"/>
     <col min="3" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:1">
+    <row r="1" s="1" customFormat="1" ht="20.4" spans="1:1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" ht="20.4" spans="1:1">
       <c r="A2" s="2" t="s">
         <v>1</v>
+      </c>
+    </row>
+    <row r="3" ht="20.4" spans="1:1">
+      <c r="A3" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" ht="20.4" spans="1:1">
+      <c r="A4" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" ht="20.4" spans="1:1">
+      <c r="A5" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" ht="20.4" spans="1:1">
+      <c r="A6" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" ht="20.4" spans="1:1">
+      <c r="A7" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" ht="20.4" spans="1:1">
+      <c r="A8" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" ht="20.4" spans="1:1">
+      <c r="A9" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" ht="20.4" spans="1:1">
+      <c r="A10" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" ht="20.4" spans="1:1">
+      <c r="A11" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" ht="20.4" spans="1:1">
+      <c r="A12" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" ht="20.4" spans="1:1">
+      <c r="A13" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" ht="20.4" spans="1:1">
+      <c r="A14" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" ht="20.4" spans="1:1">
+      <c r="A15" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" ht="20.4" spans="1:1">
+      <c r="A16" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" ht="20.4" spans="1:1">
+      <c r="A17" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" ht="20.4" spans="1:1">
+      <c r="A18" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" ht="20.4" spans="1:1">
+      <c r="A19" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" ht="20.4" spans="1:1">
+      <c r="A20" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/files/okx/okx-bsc.xlsx
+++ b/files/okx/okx-bsc.xlsx
@@ -16,64 +16,64 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
-    <t>0x5c7c7ACe20905e18CDEb67419a9B3ff34692900d</t>
-  </si>
-  <si>
-    <t>0x5e80cdDd3c890C27d305105ce095785F1606a262</t>
-  </si>
-  <si>
-    <t>0x5B8279bc39F322e58c00203E39405e0260D63839</t>
-  </si>
-  <si>
-    <t>0x690951236f31F2A74faf13314F1a0582C9575969</t>
-  </si>
-  <si>
-    <t>0x2F5284cF2c73C1dBa4ba78b7A67F228880AeD42B</t>
-  </si>
-  <si>
-    <t>0x237aCa3C70BBe0283Ae29Eb3d45Cd456eE83785d</t>
-  </si>
-  <si>
-    <t>0x76c2846CA09B78833d5a5dfd5bBD9414b598Ea72</t>
-  </si>
-  <si>
-    <t>0x5F272b8f8beE01506e2524e06a1D78d473029c14</t>
-  </si>
-  <si>
-    <t>0x184D997B5e9d57747641F54382eD5b6c4eB5130E</t>
-  </si>
-  <si>
-    <t>0xc50D31Aa9F6Bd5aB91974fC0990f250BA2cAC516</t>
-  </si>
-  <si>
-    <t>0x6aBa9216e65f3213734f74cd86914F22Ca8e7332</t>
-  </si>
-  <si>
-    <t>0x3bB590396261460a83EddBFD6e406aF1c5dA337a</t>
-  </si>
-  <si>
-    <t>0x882C68C1d7cCE806C679b6Efec33dFA9ED56eEC4</t>
-  </si>
-  <si>
-    <t>0xaf4c2cce18a58D13F043A100a782874BA2D9BdC0</t>
-  </si>
-  <si>
-    <t>0x95776D8961e0FD91340fa40D12722c6484e01Eea</t>
-  </si>
-  <si>
-    <t>0xA03D3Ef6f8d4b6c68D887328ba5D1D0484E2cE37</t>
-  </si>
-  <si>
-    <t>0x3bD28Fc6EFB1999Ad54aEA4d481f4b8E8aA56b2f</t>
-  </si>
-  <si>
-    <t>0xEacA1A602d69527ef8F3245560AE9E71b58f10C8</t>
-  </si>
-  <si>
-    <t>0x9b90323775b4198C4E67954FD08b547Fc07f3993</t>
-  </si>
-  <si>
-    <t>0x0Ceb1353686f0445521A564689C232ad5E027399</t>
+    <t>0x4819E1A6c8C6018D64C0B7681DD752aDa6238DF2</t>
+  </si>
+  <si>
+    <t>0xD95311e156ECC495fDFfc9C33a7694262Aee6AFB</t>
+  </si>
+  <si>
+    <t>0x6d67Ea66373B64D584dA473a2768C24f0f4DC3d6</t>
+  </si>
+  <si>
+    <t>0xd2167149E9d864f3244Ab28F2555bd83819cc929</t>
+  </si>
+  <si>
+    <t>0xfdeD06ae85881e76c5E9f9989B705Da685BE6c54</t>
+  </si>
+  <si>
+    <t>0x053a24f6B2936f59625aa7B4f6D7E6637818a000</t>
+  </si>
+  <si>
+    <t>0x9432474108b205eBABe066B90E7EcAcBC8EDcFE0</t>
+  </si>
+  <si>
+    <t>0xfc0c7EeBE44Cc8AdD1a502cA442045EBd19E72A4</t>
+  </si>
+  <si>
+    <t>0x2AbE31e7BAd2fd839a5d46669E1BC8DF469b4FeB</t>
+  </si>
+  <si>
+    <t>0x9B62e4BFc2C7c39696D72d77D31438B604d73374</t>
+  </si>
+  <si>
+    <t>0x5f5cb15F0D0acc0bA4D67e762149d80DDC24ca4D</t>
+  </si>
+  <si>
+    <t>0x5033c5C88e6A746D76892e35eb2607F12635f677</t>
+  </si>
+  <si>
+    <t>0x77f4d8bd84DFF7DeE2dFF2C5Ee16aa3fB7dBF08e</t>
+  </si>
+  <si>
+    <t>0x86952412F3E35B9518AA738805F1447Cc85E6e8B</t>
+  </si>
+  <si>
+    <t>0x132E96e9d0bcD9c4363943ab2bC0092bD21bf7EE</t>
+  </si>
+  <si>
+    <t>0x9148F15169ace7bF92B8c78807D1B3E02076fD6e</t>
+  </si>
+  <si>
+    <t>0xDE1a939c0802dc9855650907aDFd0F6269186825</t>
+  </si>
+  <si>
+    <t>0x53b14e1705E185A4EC324efD887bbe7533a8350C</t>
+  </si>
+  <si>
+    <t>0x8118656b463D7837062880F8fe158C11e9555942</t>
+  </si>
+  <si>
+    <t>0x0D9670d78730895F1Fc15cb747C3926b6117D2A8</t>
   </si>
 </sst>
 </file>
@@ -86,7 +86,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="22">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -108,12 +108,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -266,7 +260,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF0070C0"/>
+        <fgColor rgb="FF7030A0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -592,79 +586,79 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -676,7 +670,7 @@
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -688,7 +682,7 @@
     <xf numFmtId="0" fontId="0" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -700,7 +694,7 @@
     <xf numFmtId="0" fontId="0" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -712,7 +706,7 @@
     <xf numFmtId="0" fontId="0" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -724,7 +718,7 @@
     <xf numFmtId="0" fontId="0" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -737,15 +731,12 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1090,7 +1081,7 @@
   <dimension ref="A1:A20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="A1:B20"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.6"/>
@@ -1131,7 +1122,7 @@
       </c>
     </row>
     <row r="7" ht="20.4" spans="1:1">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1181,7 +1172,7 @@
       </c>
     </row>
     <row r="17" ht="20.4" spans="1:1">
-      <c r="A17" s="3" t="s">
+      <c r="A17" s="2" t="s">
         <v>16</v>
       </c>
     </row>

--- a/files/okx/okx-bsc.xlsx
+++ b/files/okx/okx-bsc.xlsx
@@ -4,76 +4,89 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="21840"/>
+    <workbookView windowHeight="17260"/>
   </bookViews>
   <sheets>
     <sheet name="template" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
-    <t>0x4819E1A6c8C6018D64C0B7681DD752aDa6238DF2</t>
-  </si>
-  <si>
-    <t>0xD95311e156ECC495fDFfc9C33a7694262Aee6AFB</t>
-  </si>
-  <si>
-    <t>0x6d67Ea66373B64D584dA473a2768C24f0f4DC3d6</t>
-  </si>
-  <si>
-    <t>0xd2167149E9d864f3244Ab28F2555bd83819cc929</t>
-  </si>
-  <si>
-    <t>0xfdeD06ae85881e76c5E9f9989B705Da685BE6c54</t>
-  </si>
-  <si>
-    <t>0x053a24f6B2936f59625aa7B4f6D7E6637818a000</t>
-  </si>
-  <si>
-    <t>0x9432474108b205eBABe066B90E7EcAcBC8EDcFE0</t>
-  </si>
-  <si>
-    <t>0xfc0c7EeBE44Cc8AdD1a502cA442045EBd19E72A4</t>
-  </si>
-  <si>
-    <t>0x2AbE31e7BAd2fd839a5d46669E1BC8DF469b4FeB</t>
-  </si>
-  <si>
-    <t>0x9B62e4BFc2C7c39696D72d77D31438B604d73374</t>
-  </si>
-  <si>
-    <t>0x5f5cb15F0D0acc0bA4D67e762149d80DDC24ca4D</t>
-  </si>
-  <si>
-    <t>0x5033c5C88e6A746D76892e35eb2607F12635f677</t>
-  </si>
-  <si>
-    <t>0x77f4d8bd84DFF7DeE2dFF2C5Ee16aa3fB7dBF08e</t>
-  </si>
-  <si>
-    <t>0x86952412F3E35B9518AA738805F1447Cc85E6e8B</t>
-  </si>
-  <si>
-    <t>0x132E96e9d0bcD9c4363943ab2bC0092bD21bf7EE</t>
-  </si>
-  <si>
-    <t>0x9148F15169ace7bF92B8c78807D1B3E02076fD6e</t>
-  </si>
-  <si>
-    <t>0xDE1a939c0802dc9855650907aDFd0F6269186825</t>
-  </si>
-  <si>
-    <t>0x53b14e1705E185A4EC324efD887bbe7533a8350C</t>
-  </si>
-  <si>
-    <t>0x8118656b463D7837062880F8fe158C11e9555942</t>
-  </si>
-  <si>
-    <t>0x0D9670d78730895F1Fc15cb747C3926b6117D2A8</t>
+    <t>0x1dAD09c5d68E532D48aD74672e8ba701Fd9746e9</t>
+  </si>
+  <si>
+    <t>0x9266796d20FcD249Adc9b39DDc4eF9331E41eEAe</t>
+  </si>
+  <si>
+    <t>0xf0f7d89D568e6b449e9C995bC7a8df4b066031EA</t>
+  </si>
+  <si>
+    <t>0xEdf5c170c83FBA1Aa5457e2a6Acb921855d1d37e</t>
+  </si>
+  <si>
+    <t>0xc6Fd39ec1E78a181b0ad76b26C48aA731Aa3d478</t>
+  </si>
+  <si>
+    <t>0x0b3E2C19Fc83A96ad11BdEBe640e81dDCc6EF9fD</t>
+  </si>
+  <si>
+    <t>0x1eb2EE5dC4AeDe34cdEB788ec83470EA05E09718</t>
+  </si>
+  <si>
+    <t>0x3B9f00d605d5350B189AA150dE55f726d561Ad2c</t>
+  </si>
+  <si>
+    <t>0xcD4aD3Bf5E79755fd847BB9B7b00475aD3b240ef</t>
+  </si>
+  <si>
+    <t>0xFF92D9a61e27b59D89961937514eaB1E053879Aa</t>
+  </si>
+  <si>
+    <t>0x256502875f9F66a40da118447c93F58aeF221870</t>
+  </si>
+  <si>
+    <t>0x4409D46642EeD3e20050dBbDEB1C2726aFa1C204</t>
+  </si>
+  <si>
+    <t>0x2352BC6431fDE5029b0EF6F95C7131B962453F0F</t>
+  </si>
+  <si>
+    <t>0x916910Da9e73f9e8277F01091Ff7257506673fa0</t>
+  </si>
+  <si>
+    <t>0x4F11B3b32095B6771CDF4F48fC8858b2BFB1ee72</t>
+  </si>
+  <si>
+    <t>0x478B4fF7b118786037F6958062c5b6D79417a4B1</t>
+  </si>
+  <si>
+    <t>0x72fEf32a2e2F83DeC68CB3bB3e8A3Cd374f83BB2</t>
+  </si>
+  <si>
+    <t>0xfdaB4e829102F5097ADC9680d1871260aE7E75Bf</t>
+  </si>
+  <si>
+    <t>0x2830E02DBA160d8A15b811f706a4FaC67f7fB575</t>
+  </si>
+  <si>
+    <t>0x5fCA65B914134fe4bdEE44C24C9440Ab9E92fdc9</t>
   </si>
 </sst>
 </file>
@@ -260,7 +273,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF7030A0"/>
+        <fgColor theme="7" tint="0.4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -451,27 +464,12 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="10">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -607,7 +605,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -619,34 +617,34 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -736,7 +734,7 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1081,7 +1079,7 @@
   <dimension ref="A1:A20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.6"/>

--- a/files/okx/okx-bsc.xlsx
+++ b/files/okx/okx-bsc.xlsx
@@ -4,89 +4,225 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17260"/>
+    <workbookView windowHeight="21840"/>
   </bookViews>
   <sheets>
     <sheet name="template" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
-  <si>
-    <t>0x1dAD09c5d68E532D48aD74672e8ba701Fd9746e9</t>
-  </si>
-  <si>
-    <t>0x9266796d20FcD249Adc9b39DDc4eF9331E41eEAe</t>
-  </si>
-  <si>
-    <t>0xf0f7d89D568e6b449e9C995bC7a8df4b066031EA</t>
-  </si>
-  <si>
-    <t>0xEdf5c170c83FBA1Aa5457e2a6Acb921855d1d37e</t>
-  </si>
-  <si>
-    <t>0xc6Fd39ec1E78a181b0ad76b26C48aA731Aa3d478</t>
-  </si>
-  <si>
-    <t>0x0b3E2C19Fc83A96ad11BdEBe640e81dDCc6EF9fD</t>
-  </si>
-  <si>
-    <t>0x1eb2EE5dC4AeDe34cdEB788ec83470EA05E09718</t>
-  </si>
-  <si>
-    <t>0x3B9f00d605d5350B189AA150dE55f726d561Ad2c</t>
-  </si>
-  <si>
-    <t>0xcD4aD3Bf5E79755fd847BB9B7b00475aD3b240ef</t>
-  </si>
-  <si>
-    <t>0xFF92D9a61e27b59D89961937514eaB1E053879Aa</t>
-  </si>
-  <si>
-    <t>0x256502875f9F66a40da118447c93F58aeF221870</t>
-  </si>
-  <si>
-    <t>0x4409D46642EeD3e20050dBbDEB1C2726aFa1C204</t>
-  </si>
-  <si>
-    <t>0x2352BC6431fDE5029b0EF6F95C7131B962453F0F</t>
-  </si>
-  <si>
-    <t>0x916910Da9e73f9e8277F01091Ff7257506673fa0</t>
-  </si>
-  <si>
-    <t>0x4F11B3b32095B6771CDF4F48fC8858b2BFB1ee72</t>
-  </si>
-  <si>
-    <t>0x478B4fF7b118786037F6958062c5b6D79417a4B1</t>
-  </si>
-  <si>
-    <t>0x72fEf32a2e2F83DeC68CB3bB3e8A3Cd374f83BB2</t>
-  </si>
-  <si>
-    <t>0xfdaB4e829102F5097ADC9680d1871260aE7E75Bf</t>
-  </si>
-  <si>
-    <t>0x2830E02DBA160d8A15b811f706a4FaC67f7fB575</t>
-  </si>
-  <si>
-    <t>0x5fCA65B914134fe4bdEE44C24C9440Ab9E92fdc9</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>0x62e391a302255855aa47c116963ce337b78dd975</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>0xe4d17310532a4c55205ac6d21b72fe67fb2687b3</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>0x9c09b796f1fd0ed1935095936df2e2caccaa0a37</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>0x2efb9e96f685f83e495effc619a16664ef58dda9</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>0xd21f1670f3875fc6125d77707c7f56521204cbe8</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>0x65356193340feb39d61754338698ee4c38d16e5a</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>0x1e7b7f6191bb97d01043da40832a0e22e2a18a60</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>0x1631a1566b2076be44ca74a9db462d71a558afb6</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>0xbee6cccf0f26a1ca7c35a11b5a0114a26b975156</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>0x112e3eba996b446f4293b9a2ade2f2b64aef57c9</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>0x73182653dc047a9977e63aa0ae872d63ad8233ff</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>0xc39ad757deea58b4290a2139b275f295eedc3941</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>0xb597ef288251df8f0804b84b1aa4e25082d5b20f</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>0x8046387d9d70009c52059043c6c2edb9ec489b9f</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>0xbf391d0a85537a7c36be2448305a4b8450fd5a8f</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>0x44321b6eead9b61c422b64a83a7f3d33a2a8ab4e</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>0xd6f62c7ae70e6db47b6715966f656ac8e366b0fb</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>0x960706782d0092db48390d53fc25c7462fbc8969</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>0x2b091e93cba1aef19cd2d61dfd170469504f5a24</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -115,7 +251,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="14"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
@@ -264,18 +400,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -605,7 +735,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -629,16 +759,16 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -647,16 +777,19 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -665,10 +798,10 @@
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -677,10 +810,10 @@
     <xf numFmtId="0" fontId="0" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -689,10 +822,10 @@
     <xf numFmtId="0" fontId="0" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -701,10 +834,10 @@
     <xf numFmtId="0" fontId="0" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -713,10 +846,10 @@
     <xf numFmtId="0" fontId="0" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -725,17 +858,17 @@
     <xf numFmtId="0" fontId="0" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1079,114 +1212,114 @@
   <dimension ref="A1:A20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.6"/>
   <cols>
-    <col min="1" max="1" width="86.1083333333333" style="1" customWidth="1"/>
+    <col min="1" max="1" width="59.5833333333333" style="1" customWidth="1"/>
     <col min="2" max="2" width="18.3333333333333" style="1" customWidth="1"/>
     <col min="3" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="20.4" spans="1:1">
+    <row r="1" spans="1:1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" ht="20.4" spans="1:1">
+    <row r="2" spans="1:1">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" ht="20.4" spans="1:1">
-      <c r="A3" s="2" t="s">
+    <row r="3" spans="1:1">
+      <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" ht="20.4" spans="1:1">
-      <c r="A4" s="2" t="s">
+    <row r="4" spans="1:1">
+      <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" ht="20.4" spans="1:1">
-      <c r="A5" s="2" t="s">
+    <row r="5" spans="1:1">
+      <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" ht="20.4" spans="1:1">
-      <c r="A6" s="2" t="s">
+    <row r="6" spans="1:1">
+      <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" ht="20.4" spans="1:1">
-      <c r="A7" s="2" t="s">
+    <row r="7" spans="1:1">
+      <c r="A7" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" ht="20.4" spans="1:1">
-      <c r="A8" s="2" t="s">
+    <row r="8" spans="1:1">
+      <c r="A8" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" ht="20.4" spans="1:1">
-      <c r="A9" s="2" t="s">
+    <row r="9" spans="1:1">
+      <c r="A9" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" ht="20.4" spans="1:1">
-      <c r="A10" s="2" t="s">
+    <row r="10" spans="1:1">
+      <c r="A10" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" ht="20.4" spans="1:1">
-      <c r="A11" s="2" t="s">
+    <row r="11" spans="1:1">
+      <c r="A11" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" ht="20.4" spans="1:1">
-      <c r="A12" s="2" t="s">
+    <row r="13" spans="1:1">
+      <c r="A13" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" ht="20.4" spans="1:1">
-      <c r="A13" s="2" t="s">
+    <row r="14" spans="1:1">
+      <c r="A14" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" ht="20.4" spans="1:1">
-      <c r="A14" s="2" t="s">
+    <row r="15" spans="1:1">
+      <c r="A15" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" ht="20.4" spans="1:1">
-      <c r="A15" s="2" t="s">
+    <row r="16" spans="1:1">
+      <c r="A16" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" ht="20.4" spans="1:1">
-      <c r="A16" s="2" t="s">
+    <row r="17" spans="1:1">
+      <c r="A17" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="17" ht="20.4" spans="1:1">
-      <c r="A17" s="2" t="s">
+    <row r="18" spans="1:1">
+      <c r="A18" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="18" ht="20.4" spans="1:1">
-      <c r="A18" s="2" t="s">
+    <row r="19" spans="1:1">
+      <c r="A19" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="19" ht="20.4" spans="1:1">
-      <c r="A19" s="2" t="s">
+    <row r="20" spans="1:1">
+      <c r="A20" s="3" t="s">
         <v>18</v>
-      </c>
-    </row>
-    <row r="20" ht="20.4" spans="1:1">
-      <c r="A20" s="2" t="s">
-        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/files/okx/okx-bsc.xlsx
+++ b/files/okx/okx-bsc.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <r>
       <rPr>
@@ -23,7 +23,7 @@
         <rFont val="微软雅黑"/>
         <charset val="134"/>
       </rPr>
-      <t>0x62e391a302255855aa47c116963ce337b78dd975</t>
+      <t>0xc6c66ca580c3679dabc29ef589e580e64e409bca</t>
     </r>
   </si>
   <si>
@@ -34,7 +34,7 @@
         <rFont val="微软雅黑"/>
         <charset val="134"/>
       </rPr>
-      <t>0xe4d17310532a4c55205ac6d21b72fe67fb2687b3</t>
+      <t>0x7f543c7fede66e4f33dc9f71e819c0887ca99c6b</t>
     </r>
   </si>
   <si>
@@ -45,7 +45,7 @@
         <rFont val="微软雅黑"/>
         <charset val="134"/>
       </rPr>
-      <t>0x9c09b796f1fd0ed1935095936df2e2caccaa0a37</t>
+      <t>0xe31fedc52555cc9c3d7ca1e8ad27d5cfdfe74705</t>
     </r>
   </si>
   <si>
@@ -56,7 +56,7 @@
         <rFont val="微软雅黑"/>
         <charset val="134"/>
       </rPr>
-      <t>0x2efb9e96f685f83e495effc619a16664ef58dda9</t>
+      <t>0xc82cf7ab3d6ea00bffd27eadd0b7846bf7be9d59</t>
     </r>
   </si>
   <si>
@@ -67,7 +67,7 @@
         <rFont val="微软雅黑"/>
         <charset val="134"/>
       </rPr>
-      <t>0xd21f1670f3875fc6125d77707c7f56521204cbe8</t>
+      <t>0x12e4eeb9539e09905e75c19dcb7fd56a6b269bcd</t>
     </r>
   </si>
   <si>
@@ -78,7 +78,7 @@
         <rFont val="微软雅黑"/>
         <charset val="134"/>
       </rPr>
-      <t>0x65356193340feb39d61754338698ee4c38d16e5a</t>
+      <t>0x0369767deea59f0407b2fe0928b79b73f7fc8085</t>
     </r>
   </si>
   <si>
@@ -89,7 +89,18 @@
         <rFont val="微软雅黑"/>
         <charset val="134"/>
       </rPr>
-      <t>0x1e7b7f6191bb97d01043da40832a0e22e2a18a60</t>
+      <t>0x0a268fc71116db603e4cb1efba705c2b072f7a0f</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="0"/>
+      </rPr>
+      <t>0x6ebf91c25d7ec6f7e3afa2a50fbb35ffb3500a35</t>
     </r>
   </si>
   <si>
@@ -100,7 +111,7 @@
         <rFont val="微软雅黑"/>
         <charset val="134"/>
       </rPr>
-      <t>0x1631a1566b2076be44ca74a9db462d71a558afb6</t>
+      <t>0x37ce5748de93392465d95b1d0e3ea20972f88284</t>
     </r>
   </si>
   <si>
@@ -111,7 +122,7 @@
         <rFont val="微软雅黑"/>
         <charset val="134"/>
       </rPr>
-      <t>0xbee6cccf0f26a1ca7c35a11b5a0114a26b975156</t>
+      <t>0x2b3ab52070acfb5a63a504e4c4a4351cae85a4f5</t>
     </r>
   </si>
   <si>
@@ -122,7 +133,7 @@
         <rFont val="微软雅黑"/>
         <charset val="134"/>
       </rPr>
-      <t>0x112e3eba996b446f4293b9a2ade2f2b64aef57c9</t>
+      <t>0x8389aae69a68174515a6dfec685828dd0294a799</t>
     </r>
   </si>
   <si>
@@ -133,95 +144,7 @@
         <rFont val="微软雅黑"/>
         <charset val="134"/>
       </rPr>
-      <t>0x73182653dc047a9977e63aa0ae872d63ad8233ff</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>0xc39ad757deea58b4290a2139b275f295eedc3941</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>0xb597ef288251df8f0804b84b1aa4e25082d5b20f</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>0x8046387d9d70009c52059043c6c2edb9ec489b9f</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>0xbf391d0a85537a7c36be2448305a4b8450fd5a8f</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>0x44321b6eead9b61c422b64a83a7f3d33a2a8ab4e</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>0xd6f62c7ae70e6db47b6715966f656ac8e366b0fb</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>0x960706782d0092db48390d53fc25c7462fbc8969</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>0x2b091e93cba1aef19cd2d61dfd170469504f5a24</t>
+      <t>0x9c7123860bb557b912822ddba79158b2408dc7b6</t>
     </r>
   </si>
 </sst>
@@ -235,7 +158,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="23">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -255,6 +178,12 @@
       <color rgb="FF000000"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="微软雅黑"/>
+      <charset val="0"/>
     </font>
     <font>
       <sz val="11"/>
@@ -714,79 +643,79 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -798,7 +727,7 @@
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -810,7 +739,7 @@
     <xf numFmtId="0" fontId="0" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -822,7 +751,7 @@
     <xf numFmtId="0" fontId="0" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -834,7 +763,7 @@
     <xf numFmtId="0" fontId="0" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -846,7 +775,7 @@
     <xf numFmtId="0" fontId="0" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -864,11 +793,11 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1209,10 +1138,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:A20"/>
+  <dimension ref="A1:A12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.6"/>
@@ -1233,27 +1162,27 @@
       </c>
     </row>
     <row r="3" spans="1:1">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:1">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:1">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:1">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:1">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1263,63 +1192,23 @@
       </c>
     </row>
     <row r="9" spans="1:1">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:1">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:1">
-      <c r="A11" s="3" t="s">
-        <v>9</v>
+      <c r="A11" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:1">
-      <c r="A12" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1">
-      <c r="A13" s="3" t="s">
+      <c r="A12" s="2" t="s">
         <v>11</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1">
-      <c r="A14" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1">
-      <c r="A15" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1">
-      <c r="A16" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1">
-      <c r="A17" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1">
-      <c r="A18" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1">
-      <c r="A19" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1">
-      <c r="A20" s="3" t="s">
-        <v>18</v>
       </c>
     </row>
   </sheetData>
